--- a/biology/Botanique/Graptopetalum_mendozae/Graptopetalum_mendozae.xlsx
+++ b/biology/Botanique/Graptopetalum_mendozae/Graptopetalum_mendozae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Graptopetalum mendozae est une espèce de plante succulente de la famille des Crassulaceae, originaire du Mexique.
 Elle est souvent cultivée comme plante d'ornement pour ses feuilles charnues et colorées.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Graptopetalum mendozae est originaire de la région de Tehuacán-Cuicatlán, située dans l'État de Puebla, dans le sud du Mexique. Cette plante succulente pousse dans les zones semi-désertiques de cette région, à une altitude comprise entre 1 200 et 2 400 mètres.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Graptopetalum mendozae est une plante succulente vivace, qui peut atteindre une hauteur de 10 à 15 centimètres.
 Elle possède des tiges charnues, ramifiées et rampantes, qui s'étendent sur le sol ou poussent en cascade depuis des pots suspendus.
@@ -577,7 +593,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Graptopetalum mendozae est une plante facile à cultiver, qui tolère une large gamme de conditions de croissance. Elle préfère un sol bien drainé et une exposition ensoleillée à mi-ombre. Elle peut être cultivée en intérieur, en utilisant un mélange de terreau et de sable, ou en extérieur, dans un sol poreux et bien drainé. 
 Elle est rustique jusqu'à -5°C si elle est maintenue au sec. 
@@ -611,7 +629,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Graptopetalum mendozae est souvent cultivée comme plante d'ornement, en raison de ses feuilles charnues et colorées très faciles à bouturer. Elle est idéale pour les jardins de rocaille, les plates-bandes, les pots suspendus ou les jardins de cactus et de succulentes. Elle est également utilisée dans les arrangements floraux et les bouquets, pour sa belle apparence et sa longue durée de vie en vase.
 </t>
